--- a/Plaća u naravi.xlsx
+++ b/Plaća u naravi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\OneDrive\Desktop\Placa_u_naravi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8541E093-5DE5-4672-A7FB-EFCF042E6763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1EF6F4-1207-4744-BB22-21729A53D235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <definedName name="VPS">0.33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -711,7 +712,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +848,7 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="10">
@@ -1009,7 +1010,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pmguUeXRJDciV2H3SLsj41N6Oa+nenxQ8oyOdmApwT3qxTHfj9T0CgTvW21l78cuQNsF0vIHFs8zkJuYavpo6A==" saltValue="FJUEWxEKIW/JF35HtyMTPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xF+pF72+pbG8UiZLzVEm+89awtTEt9wZVfPi9Va9eHtBjHEFlsRoXt2vSU+foz2/+kiNMEUbP8gOb74b/GN2Dw==" saltValue="rkdDQups5nulUIzmBe/lBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plaća u naravi.xlsx
+++ b/Plaća u naravi.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\OneDrive\Desktop\Placa_u_naravi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47a89462a3ef6108/Desktop/Placa_u_naravi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1EF6F4-1207-4744-BB22-21729A53D235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{E83B14BF-219A-49E5-ABF1-6DB2011B8FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFC9F9AB-CC88-4E8C-9B06-4E2109A2AA6D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kalkulacija plaće" sheetId="1" r:id="rId1"/>
+    <sheet name="Helper" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Kalkulacija plaće" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Bp">'Kalkulacija plaće'!$D$2</definedName>
     <definedName name="D">'Kalkulacija plaće'!$D$6</definedName>
     <definedName name="KpN">NPS/(1-NPS)+1</definedName>
     <definedName name="KpV">VPS/(1-VPS)+1</definedName>
+    <definedName name="Lista">Helper!$A$1:$A$3</definedName>
     <definedName name="N">'Kalkulacija plaće'!$D$13</definedName>
     <definedName name="NPS">0.23</definedName>
     <definedName name="O">'Kalkulacija plaće'!$D$7</definedName>
     <definedName name="VPS">0.33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,10 +165,10 @@
     <t>IZNOS U NARAVI</t>
   </si>
   <si>
-    <t>Umanjenje osnovice za obračun doprinosa za MIO I.</t>
-  </si>
-  <si>
     <t>Ukupna plaća</t>
+  </si>
+  <si>
+    <t>Umanjenje osnovice</t>
   </si>
 </sst>
 </file>
@@ -368,7 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -425,6 +426,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -433,8 +437,51 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC7CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -444,6 +491,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,8 +759,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73B2E7E-E411-4184-95AF-23A6A1CCF351}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" cm="1">
+        <f t="array" aca="1" ref="A2" ca="1">_xlfn.IFS('Kalkulacija plaće'!D2&lt;=300,'Kalkulacija plaće'!D2,'Kalkulacija plaće'!D2&lt;=700,300,AND('Kalkulacija plaće'!D2&gt;700,'Kalkulacija plaće'!D2&lt;1300),(1300-'Kalkulacija plaće'!D2)*0.5,'Kalkulacija plaće'!D2&gt;1300,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="TQp0KWmd12dGGWQz/Nio61p9sJK4tNEdjLWTw0B50Yvg0SrBw8DGJwM+wGMbXz+a5yrxiaSxQ8NCYTsTPlIRcQ==" saltValue="WsYk9ldvZclyLp2qNvvlow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -717,13 +803,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -737,11 +823,11 @@
         <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -751,33 +837,35 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
-        <f>D/0.8</f>
+      <c r="D2" s="7" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">_xlfn.IFS(E3=0,D/0.8,D&lt;=285,D/0.95,AND(D&gt;285,D&lt;=605),(D-45)/0.8,AND(D&gt;605,D&lt;=1040),(D-97.5)/0.725,D&gt;1040,D/0.8)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <f>C2+Bp</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <f ca="1">C2+Bp</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="10" cm="1">
-        <f t="array" ref="C3">_xlfn.IFS(C2+Bp&lt;300,C2,C2+Bp&lt;=700,300,AND(C2+Bp&gt;700,C2+Bp&lt;1300),(1300-(C2+Bp))*0.5,C2+Bp&gt;1300,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="7">
-        <f>C3+D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7">
+        <f ca="1">IF(E3=0,0,E3-D3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">_xlfn.IFS(E2&lt;=300,E2,E2&lt;=700,300,AND(E2&gt;700,E2&lt;1300),(1300-E2)*0.5,E2&gt;1300,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -785,19 +873,19 @@
         <v>16</v>
       </c>
       <c r="C4" s="10">
-        <f>C2-C3</f>
+        <f ca="1">C2-C3</f>
         <v>0</v>
       </c>
       <c r="D4" s="10">
-        <f>Bp-D3</f>
+        <f ca="1">Bp-D3</f>
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <f>C4+D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <f ca="1">C4+D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -805,20 +893,21 @@
         <v>17</v>
       </c>
       <c r="C5" s="11" t="str">
-        <f>TEXT(ROUND(C4*0.15+C2*0.05,2),"0.00")&amp;"                          "&amp;TEXT(ROUND(C4*0.15,2),"0.00")&amp;"                      "&amp;TEXT(ROUND(C2*0.05,2),"0.00")</f>
+        <f ca="1">TEXT(ROUND(C4*0.15+C2*0.05,2),"0.00")&amp;"                          "&amp;TEXT(ROUND(C4*0.15,2),"0.00")&amp;"                      "&amp;TEXT(ROUND(C2*0.05,2),"0.00")</f>
         <v>0.00                          0.00                      0.00</v>
       </c>
       <c r="D5" s="11" t="str">
-        <f>TEXT(ROUND(D4*0.15+Bp*0.05,2),"0.00")&amp;"                      "&amp;TEXT(ROUND(D4*0.15,2),"0.00")&amp;"                      "&amp;TEXT(ROUND(Bp*0.05,2),"0.00")</f>
+        <f ca="1">TEXT(ROUND(D4*0.15+Bp*0.05,2),"0.00")&amp;"                      "&amp;TEXT(ROUND(D4*0.15,2),"0.00")&amp;"                      "&amp;TEXT(ROUND(Bp*0.05,2),"0.00")</f>
         <v>0.00                      0.00                      0.00</v>
       </c>
       <c r="E5" s="11" t="str">
-        <f>TEXT(ROUND(C4*0.15+C2*0.05,2)+ROUND(D4*0.15+Bp*0.05,2),"0.00")&amp;"                      "&amp;TEXT(ROUND(C4*0.15,2)+ROUND(D4*0.15,2),"0.00")&amp;"                      "&amp;TEXT(ROUND(C2*0.05,2)+ROUND(Bp*0.05,2),"0.00")</f>
+        <f ca="1">TEXT(ROUND(C4*0.15+C2*0.05,2)+ROUND(D4*0.15+Bp*0.05,2),"0.00")&amp;"                      "&amp;TEXT(ROUND(C4*0.15,2)+ROUND(D4*0.15,2),"0.00")&amp;"                      "&amp;TEXT(ROUND(C2*0.05,2)+ROUND(Bp*0.05,2),"0.00")</f>
         <v>0.00                      0.00                      0.00</v>
       </c>
       <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -826,7 +915,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="10">
-        <f>C2-(C4*0.15+C2*0.05)</f>
+        <f ca="1">C2-(C4*0.15+C2*0.05)</f>
         <v>0</v>
       </c>
       <c r="D6" s="10" cm="1">
@@ -834,11 +923,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <f>C6+D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">C6+D6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -852,11 +942,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <f t="shared" ref="E7:E15" si="0">C7+D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E7" si="0">C7+D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -864,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="10">
-        <f>C6-C7</f>
+        <f ca="1">C6-C7</f>
         <v>0</v>
       </c>
       <c r="D8" s="10">
@@ -872,11 +962,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f ca="1">C8+D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -884,19 +974,19 @@
         <v>20</v>
       </c>
       <c r="C9" s="10">
-        <f>IF(C8&lt;=5000,C8*NPS,5000*NPS)</f>
+        <f ca="1">IF(C8&lt;=5000,C8*NPS,5000*NPS)</f>
         <v>0</v>
       </c>
       <c r="D9" s="10">
-        <f>IF(C8+D8&lt;=5000,D8*NPS,0)</f>
+        <f ca="1">IF(C8+D8&lt;=5000,D8*NPS,0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f ca="1">C9+D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -904,19 +994,19 @@
         <v>21</v>
       </c>
       <c r="C10" s="10">
-        <f>IF(C8&gt;5000,(C8-5000)*VPS,0)</f>
+        <f ca="1">IF(C8&gt;5000,(C8-5000)*VPS,0)</f>
         <v>0</v>
       </c>
       <c r="D10" s="10">
-        <f>IF(C8+D8&gt;5000,(C8+D8-5000)*VPS,0)</f>
+        <f ca="1">IF(C8+D8&gt;5000,(C8+D8-5000)*VPS,0)</f>
         <v>0</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">C10+D10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -924,19 +1014,19 @@
         <v>22</v>
       </c>
       <c r="C11" s="10">
-        <f>C9+C10</f>
+        <f ca="1">C9+C10</f>
         <v>0</v>
       </c>
       <c r="D11" s="10">
-        <f>D9+D10</f>
+        <f ca="1">D9+D10</f>
         <v>0</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">C11+D11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
@@ -944,16 +1034,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="10">
-        <f>C6-C11</f>
+        <f ca="1">C6-C11</f>
         <v>0</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10">
-        <f>C12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">C12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -969,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -981,15 +1071,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="10">
-        <f>Bp*0.165</f>
+        <f ca="1">Bp*0.165</f>
         <v>0</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f ca="1">C14+D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1001,16 +1091,53 @@
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <f>(Bp-D3)*0.15+Bp*0.05+D11+D14</f>
+        <f ca="1">(Bp-D3)*0.15+Bp*0.05+D11+D14</f>
         <v>0</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f ca="1">C15+D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xF+pF72+pbG8UiZLzVEm+89awtTEt9wZVfPi9Va9eHtBjHEFlsRoXt2vSU+foz2/+kiNMEUbP8gOb74b/GN2Dw==" saltValue="rkdDQups5nulUIzmBe/lBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MfRzE6Dh9MYYk/ZPR/7Dc7yOo+Iuj2N8aNluKglLb3S6oW1eAPB5qEevoDXveJqiRTEJMWgUFLBWrscvy7tKSQ==" saltValue="BBU/Qv6W7mzB8OZDFcErBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+      <formula>$C$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+      <formula>$C$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D$3&lt;&gt;$E$3-$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>$D$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{B8D77322-4ACC-4D5F-BFE8-EF2DD8E86DBF}">
+      <formula1>Lista</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>